--- a/predictions полгода до/Прогнозы_ProphetMul.xlsx
+++ b/predictions полгода до/Прогнозы_ProphetMul.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27734244.87689124</v>
+        <v>27919360.39460584</v>
       </c>
       <c r="C2" t="n">
-        <v>26575625.5856062</v>
+        <v>23426547.88861686</v>
       </c>
       <c r="D2" t="n">
-        <v>22922618.62066328</v>
+        <v>19518003.48600933</v>
       </c>
       <c r="E2" t="n">
-        <v>20098737.96193674</v>
+        <v>23958273.53957755</v>
       </c>
       <c r="F2" t="n">
-        <v>24838090.81003774</v>
+        <v>24551429.42878974</v>
       </c>
       <c r="G2" t="n">
-        <v>25960675.48669149</v>
+        <v>20555435.35264496</v>
       </c>
       <c r="H2" t="n">
-        <v>21858676.61736455</v>
+        <v>28488334.0136016</v>
       </c>
       <c r="I2" t="n">
-        <v>29586832.47353923</v>
+        <v>27556733.07703402</v>
       </c>
       <c r="J2" t="n">
-        <v>28448478.04823856</v>
+        <v>25265762.81946865</v>
       </c>
       <c r="K2" t="n">
-        <v>27312155.54594255</v>
+        <v>26987886.84492371</v>
       </c>
       <c r="L2" t="n">
-        <v>29720821.65498519</v>
+        <v>23673012.29171378</v>
       </c>
       <c r="M2" t="n">
-        <v>26829368.71418159</v>
+        <v>24384012.00088491</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-13620563.59271263</v>
+        <v>-16242458.8508505</v>
       </c>
       <c r="C3" t="n">
-        <v>-10912627.48542391</v>
+        <v>-2631830.580958872</v>
       </c>
       <c r="D3" t="n">
-        <v>10774054.50205616</v>
+        <v>13114652.19023596</v>
       </c>
       <c r="E3" t="n">
-        <v>15017771.22584845</v>
+        <v>16005572.31371497</v>
       </c>
       <c r="F3" t="n">
-        <v>14414623.87848517</v>
+        <v>29010856.55740611</v>
       </c>
       <c r="G3" t="n">
-        <v>33058175.22364188</v>
+        <v>10770689.32590496</v>
       </c>
       <c r="H3" t="n">
-        <v>5022397.149687396</v>
+        <v>7006260.082318569</v>
       </c>
       <c r="I3" t="n">
-        <v>8047305.746587047</v>
+        <v>89206965.5811694</v>
       </c>
       <c r="J3" t="n">
-        <v>58774473.89945348</v>
+        <v>3921715.761800728</v>
       </c>
       <c r="K3" t="n">
-        <v>44145199.04173249</v>
+        <v>1926704.347113042</v>
       </c>
       <c r="L3" t="n">
-        <v>-43447423.91171998</v>
+        <v>-31539625.30308069</v>
       </c>
       <c r="M3" t="n">
-        <v>-35089287.3577366</v>
+        <v>-27483629.01451177</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770132.2616358214</v>
+        <v>-793772.0226731597</v>
       </c>
       <c r="C4" t="n">
-        <v>1761855.539487947</v>
+        <v>-462379.1542683893</v>
       </c>
       <c r="D4" t="n">
-        <v>906682.4745288946</v>
+        <v>260291.4724167901</v>
       </c>
       <c r="E4" t="n">
-        <v>1279421.607794225</v>
+        <v>3028867.365270616</v>
       </c>
       <c r="F4" t="n">
-        <v>2389268.603228784</v>
+        <v>5301510.600641167</v>
       </c>
       <c r="G4" t="n">
-        <v>4553688.293225332</v>
+        <v>5070720.186735244</v>
       </c>
       <c r="H4" t="n">
-        <v>3441500.441982226</v>
+        <v>5685012.070919838</v>
       </c>
       <c r="I4" t="n">
-        <v>3622902.113787808</v>
+        <v>5398860.637495523</v>
       </c>
       <c r="J4" t="n">
-        <v>2456476.063233077</v>
+        <v>10032396.73469591</v>
       </c>
       <c r="K4" t="n">
-        <v>5930714.336796249</v>
+        <v>8711629.384192092</v>
       </c>
       <c r="L4" t="n">
-        <v>3894898.364126235</v>
+        <v>2700524.278169286</v>
       </c>
       <c r="M4" t="n">
-        <v>660552.0337312745</v>
+        <v>-4164477.866684989</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3187715.110019637</v>
+        <v>15832929.71489938</v>
       </c>
       <c r="C5" t="n">
-        <v>203804.6946513055</v>
+        <v>18770420.40694695</v>
       </c>
       <c r="D5" t="n">
-        <v>23878.1504250026</v>
+        <v>20646107.59055371</v>
       </c>
       <c r="E5" t="n">
-        <v>532257.2507882182</v>
+        <v>21836434.39980012</v>
       </c>
       <c r="F5" t="n">
-        <v>515547.6445941828</v>
+        <v>53389371.00309533</v>
       </c>
       <c r="G5" t="n">
-        <v>-161032.0835887739</v>
+        <v>8221524.8736865</v>
       </c>
       <c r="H5" t="n">
-        <v>-232475.3507643995</v>
+        <v>22557334.24068239</v>
       </c>
       <c r="I5" t="n">
-        <v>948671.3936093905</v>
+        <v>32418431.43644315</v>
       </c>
       <c r="J5" t="n">
-        <v>6286311.335386367</v>
+        <v>24806334.51136069</v>
       </c>
       <c r="K5" t="n">
-        <v>1901936.355485223</v>
+        <v>19850192.39005725</v>
       </c>
       <c r="L5" t="n">
-        <v>-3201264.322346704</v>
+        <v>25866187.96374508</v>
       </c>
       <c r="M5" t="n">
-        <v>-9897973.369977117</v>
+        <v>24184065.46480503</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6532783.261410462</v>
+        <v>6602486.476957816</v>
       </c>
       <c r="C6" t="n">
-        <v>6943744.00389421</v>
+        <v>5793456.863381054</v>
       </c>
       <c r="D6" t="n">
-        <v>7568656.880579644</v>
+        <v>2583046.139768261</v>
       </c>
       <c r="E6" t="n">
-        <v>6322516.92773698</v>
+        <v>8299563.605556548</v>
       </c>
       <c r="F6" t="n">
-        <v>9258703.411252895</v>
+        <v>4774201.641689202</v>
       </c>
       <c r="G6" t="n">
-        <v>37168315.64803952</v>
+        <v>3995903.145555354</v>
       </c>
       <c r="H6" t="n">
-        <v>2541716.633015569</v>
+        <v>6437509.521989815</v>
       </c>
       <c r="I6" t="n">
-        <v>8032033.066411602</v>
+        <v>8845358.940274213</v>
       </c>
       <c r="J6" t="n">
-        <v>12002360.27116876</v>
+        <v>6986017.410666533</v>
       </c>
       <c r="K6" t="n">
-        <v>8963327.510186445</v>
+        <v>3992419.267306786</v>
       </c>
       <c r="L6" t="n">
-        <v>6279853.23987741</v>
+        <v>5420090.814851957</v>
       </c>
       <c r="M6" t="n">
-        <v>9024038.752133572</v>
+        <v>7660666.727270588</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1157889.296697841</v>
+        <v>-798626.6120299757</v>
       </c>
       <c r="C7" t="n">
-        <v>1431311.972459798</v>
+        <v>2342400.299522861</v>
       </c>
       <c r="D7" t="n">
-        <v>2246720.715057328</v>
+        <v>1990938.885970166</v>
       </c>
       <c r="E7" t="n">
-        <v>3400322.97655792</v>
+        <v>4402242.129320582</v>
       </c>
       <c r="F7" t="n">
-        <v>2687081.179100657</v>
+        <v>7389663.919854502</v>
       </c>
       <c r="G7" t="n">
-        <v>3852661.775907547</v>
+        <v>5091562.38672397</v>
       </c>
       <c r="H7" t="n">
-        <v>35006.02757344914</v>
+        <v>6309865.197475954</v>
       </c>
       <c r="I7" t="n">
-        <v>3623329.352904805</v>
+        <v>20442589.70101942</v>
       </c>
       <c r="J7" t="n">
-        <v>3082049.393467411</v>
+        <v>13454997.86568691</v>
       </c>
       <c r="K7" t="n">
-        <v>3528644.153706287</v>
+        <v>-859550.5398276735</v>
       </c>
       <c r="L7" t="n">
-        <v>2027690.40774857</v>
+        <v>3101820.562753877</v>
       </c>
       <c r="M7" t="n">
-        <v>1913058.440009383</v>
+        <v>4442078.716234247</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2668784.525190495</v>
+        <v>13516163.05284164</v>
       </c>
       <c r="C8" t="n">
-        <v>1602279.097441036</v>
+        <v>17183939.43534267</v>
       </c>
       <c r="D8" t="n">
-        <v>767881.0699329494</v>
+        <v>16837130.99345468</v>
       </c>
       <c r="E8" t="n">
-        <v>1663080.988207356</v>
+        <v>16259134.68191224</v>
       </c>
       <c r="F8" t="n">
-        <v>1360965.832207359</v>
+        <v>25267466.05824378</v>
       </c>
       <c r="G8" t="n">
-        <v>2981150.685592761</v>
+        <v>10476199.77840403</v>
       </c>
       <c r="H8" t="n">
-        <v>1333560.513949065</v>
+        <v>17529512.33799089</v>
       </c>
       <c r="I8" t="n">
-        <v>1311083.508346525</v>
+        <v>19652694.27070186</v>
       </c>
       <c r="J8" t="n">
-        <v>1965934.096251152</v>
+        <v>19052505.49139024</v>
       </c>
       <c r="K8" t="n">
-        <v>1823012.074438906</v>
+        <v>16498155.86847917</v>
       </c>
       <c r="L8" t="n">
-        <v>996050.8015199844</v>
+        <v>19104826.32684081</v>
       </c>
       <c r="M8" t="n">
-        <v>1776508.433950133</v>
+        <v>17860889.86529175</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1856180.805997338</v>
+        <v>23208116.97328949</v>
       </c>
       <c r="C9" t="n">
-        <v>186043.3557567821</v>
+        <v>23384293.93062332</v>
       </c>
       <c r="D9" t="n">
-        <v>-119341.5673674885</v>
+        <v>23048681.80998581</v>
       </c>
       <c r="E9" t="n">
-        <v>287819.4568127659</v>
+        <v>25183858.60647627</v>
       </c>
       <c r="F9" t="n">
-        <v>-544851.5063003241</v>
+        <v>44048352.52429679</v>
       </c>
       <c r="G9" t="n">
-        <v>-256156.5933596733</v>
+        <v>21718550.87924128</v>
       </c>
       <c r="H9" t="n">
-        <v>-1166815.276532484</v>
+        <v>16339414.31107458</v>
       </c>
       <c r="I9" t="n">
-        <v>5651572.486642812</v>
+        <v>22019486.92115315</v>
       </c>
       <c r="J9" t="n">
-        <v>-2055425.755302802</v>
+        <v>35667751.94905533</v>
       </c>
       <c r="K9" t="n">
-        <v>35610177.12166835</v>
+        <v>26818702.1415817</v>
       </c>
       <c r="L9" t="n">
-        <v>-1097506.462658426</v>
+        <v>36811611.07500026</v>
       </c>
       <c r="M9" t="n">
-        <v>-11039708.76311454</v>
+        <v>26895721.79717174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2771466.252936455</v>
+        <v>-38453030.33894914</v>
       </c>
       <c r="C10" t="n">
-        <v>3883646.101956201</v>
+        <v>26821925.08893526</v>
       </c>
       <c r="D10" t="n">
-        <v>4888010.424426636</v>
+        <v>-60840155.9910623</v>
       </c>
       <c r="E10" t="n">
-        <v>3992666.370895899</v>
+        <v>78974367.76096612</v>
       </c>
       <c r="F10" t="n">
-        <v>4047950.110964669</v>
+        <v>13462198.09886044</v>
       </c>
       <c r="G10" t="n">
-        <v>7471497.910509082</v>
+        <v>-11589325.17291364</v>
       </c>
       <c r="H10" t="n">
-        <v>2024809.445463937</v>
+        <v>-14208522.34473111</v>
       </c>
       <c r="I10" t="n">
-        <v>4044094.436726463</v>
+        <v>46262986.22607777</v>
       </c>
       <c r="J10" t="n">
-        <v>8306127.62949291</v>
+        <v>17613376.37195943</v>
       </c>
       <c r="K10" t="n">
-        <v>3645943.000354315</v>
+        <v>-27117011.64896836</v>
       </c>
       <c r="L10" t="n">
-        <v>3947880.61711306</v>
+        <v>-18819223.1555773</v>
       </c>
       <c r="M10" t="n">
-        <v>4522834.926693779</v>
+        <v>-55782458.42933594</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8235645.896693021</v>
+        <v>15149649.39517531</v>
       </c>
       <c r="C11" t="n">
-        <v>5866616.503029298</v>
+        <v>6201704.713518555</v>
       </c>
       <c r="D11" t="n">
-        <v>3059592.777048541</v>
+        <v>70716596.50017114</v>
       </c>
       <c r="E11" t="n">
-        <v>789766.9574358</v>
+        <v>43711374.51606802</v>
       </c>
       <c r="F11" t="n">
-        <v>8584964.574429158</v>
+        <v>-16370095.22516115</v>
       </c>
       <c r="G11" t="n">
-        <v>4107380.885383079</v>
+        <v>35769961.29618225</v>
       </c>
       <c r="H11" t="n">
-        <v>5619790.433824752</v>
+        <v>3373852.872042665</v>
       </c>
       <c r="I11" t="n">
-        <v>4900738.24034214</v>
+        <v>-28488311.41682616</v>
       </c>
       <c r="J11" t="n">
-        <v>10525249.36229236</v>
+        <v>2622050.420954681</v>
       </c>
       <c r="K11" t="n">
-        <v>7354204.670639165</v>
+        <v>48993119.22887804</v>
       </c>
       <c r="L11" t="n">
-        <v>3745917.005575536</v>
+        <v>7066528.493769142</v>
       </c>
       <c r="M11" t="n">
-        <v>6180076.73787612</v>
+        <v>46943231.14115311</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>458799.5630086872</v>
+        <v>31364467.17311579</v>
       </c>
       <c r="C12" t="n">
-        <v>448205.6580525251</v>
+        <v>38882323.21943242</v>
       </c>
       <c r="D12" t="n">
-        <v>366616.8985402309</v>
+        <v>48903650.22452443</v>
       </c>
       <c r="E12" t="n">
-        <v>381550.4906480159</v>
+        <v>42100605.85999911</v>
       </c>
       <c r="F12" t="n">
-        <v>340131.6779409225</v>
+        <v>32305883.72674317</v>
       </c>
       <c r="G12" t="n">
-        <v>334221.342871835</v>
+        <v>34477505.18800952</v>
       </c>
       <c r="H12" t="n">
-        <v>159813.8607899404</v>
+        <v>30824860.41439867</v>
       </c>
       <c r="I12" t="n">
-        <v>243417.0501919402</v>
+        <v>39385901.32780762</v>
       </c>
       <c r="J12" t="n">
-        <v>247449.4375644145</v>
+        <v>31700453.44152208</v>
       </c>
       <c r="K12" t="n">
-        <v>159036.8336392259</v>
+        <v>28048888.12333195</v>
       </c>
       <c r="L12" t="n">
-        <v>94555.99160252389</v>
+        <v>38083903.3259847</v>
       </c>
       <c r="M12" t="n">
-        <v>22119.54947249174</v>
+        <v>47930234.40924012</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1730932.580518585</v>
+        <v>43601835.44891158</v>
       </c>
       <c r="C13" t="n">
-        <v>1613705.632953698</v>
+        <v>43004258.96213535</v>
       </c>
       <c r="D13" t="n">
-        <v>-2707730.702796829</v>
+        <v>44005295.38719481</v>
       </c>
       <c r="E13" t="n">
-        <v>5515554.324421274</v>
+        <v>41423532.18370409</v>
       </c>
       <c r="F13" t="n">
-        <v>1625197.503933896</v>
+        <v>41126401.86071417</v>
       </c>
       <c r="G13" t="n">
-        <v>2404379.684926962</v>
+        <v>30336556.96198194</v>
       </c>
       <c r="H13" t="n">
-        <v>1146516.62228661</v>
+        <v>33260644.59088026</v>
       </c>
       <c r="I13" t="n">
-        <v>1606694.156970442</v>
+        <v>37848504.72760651</v>
       </c>
       <c r="J13" t="n">
-        <v>19144824.231901</v>
+        <v>36472497.35913771</v>
       </c>
       <c r="K13" t="n">
-        <v>-2051673.347293749</v>
+        <v>29157361.71139536</v>
       </c>
       <c r="L13" t="n">
-        <v>-7988275.069315667</v>
+        <v>38082059.24136328</v>
       </c>
       <c r="M13" t="n">
-        <v>-4482987.261508225</v>
+        <v>45938890.23838326</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-257423.3510988059</v>
+        <v>-2748954.873011034</v>
       </c>
       <c r="C14" t="n">
-        <v>-179397.4656083306</v>
+        <v>-222513.7399815265</v>
       </c>
       <c r="D14" t="n">
-        <v>23271.81746588648</v>
+        <v>452882.4260206235</v>
       </c>
       <c r="E14" t="n">
-        <v>-1387692.452906477</v>
+        <v>-98113.31966749438</v>
       </c>
       <c r="F14" t="n">
-        <v>-249515.5195561374</v>
+        <v>-572937.6221726211</v>
       </c>
       <c r="G14" t="n">
-        <v>-1508537.024915466</v>
+        <v>1389376.766395771</v>
       </c>
       <c r="H14" t="n">
-        <v>-286793.2039846045</v>
+        <v>2630728.53450089</v>
       </c>
       <c r="I14" t="n">
-        <v>483539.8495180986</v>
+        <v>9264534.52419821</v>
       </c>
       <c r="J14" t="n">
-        <v>-3010844.214158226</v>
+        <v>5482313.563075128</v>
       </c>
       <c r="K14" t="n">
-        <v>-1766819.491640496</v>
+        <v>-611899.8051513104</v>
       </c>
       <c r="L14" t="n">
-        <v>-787516.8138285752</v>
+        <v>-3459094.474046561</v>
       </c>
       <c r="M14" t="n">
-        <v>-1790475.414241081</v>
+        <v>-8216033.911948315</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1397629.135651304</v>
+        <v>3425001.729004876</v>
       </c>
       <c r="C15" t="n">
-        <v>652985.0488244767</v>
+        <v>4395117.482635929</v>
       </c>
       <c r="D15" t="n">
-        <v>761158.6322077119</v>
+        <v>2310305.816278433</v>
       </c>
       <c r="E15" t="n">
-        <v>1028609.298897955</v>
+        <v>5783549.950304168</v>
       </c>
       <c r="F15" t="n">
-        <v>383234.1314082591</v>
+        <v>6093718.750419551</v>
       </c>
       <c r="G15" t="n">
-        <v>2442552.579496735</v>
+        <v>3701496.191844385</v>
       </c>
       <c r="H15" t="n">
-        <v>2434469.47919247</v>
+        <v>351187.9631811985</v>
       </c>
       <c r="I15" t="n">
-        <v>-13315.41888578507</v>
+        <v>2129888.54686531</v>
       </c>
       <c r="J15" t="n">
-        <v>1290297.131674091</v>
+        <v>8642705.810947245</v>
       </c>
       <c r="K15" t="n">
-        <v>312785.9096924033</v>
+        <v>3944027.50265803</v>
       </c>
       <c r="L15" t="n">
-        <v>-2152131.156329514</v>
+        <v>1315274.8285835</v>
       </c>
       <c r="M15" t="n">
-        <v>-1441663.454250856</v>
+        <v>3357121.150798642</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1424976.766944828</v>
+        <v>-385637.7966533757</v>
       </c>
       <c r="C16" t="n">
-        <v>709068.5435559372</v>
+        <v>15210534.68817799</v>
       </c>
       <c r="D16" t="n">
-        <v>495826.6153754993</v>
+        <v>11532144.05142426</v>
       </c>
       <c r="E16" t="n">
-        <v>945044.6263650507</v>
+        <v>19673462.84839292</v>
       </c>
       <c r="F16" t="n">
-        <v>93128.7682299712</v>
+        <v>16768730.90968413</v>
       </c>
       <c r="G16" t="n">
-        <v>2030409.674332978</v>
+        <v>17812421.40774516</v>
       </c>
       <c r="H16" t="n">
-        <v>633042.0851176151</v>
+        <v>5290809.482054552</v>
       </c>
       <c r="I16" t="n">
-        <v>978392.4735389085</v>
+        <v>9656378.863554232</v>
       </c>
       <c r="J16" t="n">
-        <v>-2293259.290355724</v>
+        <v>15180023.95435152</v>
       </c>
       <c r="K16" t="n">
-        <v>416126.0058043402</v>
+        <v>11865176.75203592</v>
       </c>
       <c r="L16" t="n">
-        <v>7168424.886289265</v>
+        <v>10395124.46696294</v>
       </c>
       <c r="M16" t="n">
-        <v>-3797467.874499549</v>
+        <v>7093404.235719417</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13767410.35976198</v>
+        <v>4703644.207851099</v>
       </c>
       <c r="C17" t="n">
-        <v>6730991.011521461</v>
+        <v>5168449.191726789</v>
       </c>
       <c r="D17" t="n">
-        <v>5256070.697853887</v>
+        <v>10159130.89248844</v>
       </c>
       <c r="E17" t="n">
-        <v>4962432.200370259</v>
+        <v>8748455.610146109</v>
       </c>
       <c r="F17" t="n">
-        <v>5262231.727323267</v>
+        <v>5766425.431093242</v>
       </c>
       <c r="G17" t="n">
-        <v>8739781.193316178</v>
+        <v>5666266.976174821</v>
       </c>
       <c r="H17" t="n">
-        <v>3731409.618422613</v>
+        <v>1154804.146950137</v>
       </c>
       <c r="I17" t="n">
-        <v>2693045.349720615</v>
+        <v>832316.9038456012</v>
       </c>
       <c r="J17" t="n">
-        <v>26538767.16239862</v>
+        <v>115241.5726615655</v>
       </c>
       <c r="K17" t="n">
-        <v>9877631.870256701</v>
+        <v>4072593.804377451</v>
       </c>
       <c r="L17" t="n">
-        <v>-7241367.8220267</v>
+        <v>11779861.3789373</v>
       </c>
       <c r="M17" t="n">
-        <v>-21888027.10251063</v>
+        <v>8455409.351382989</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1500202.707605573</v>
+        <v>3393824.015885011</v>
       </c>
       <c r="C18" t="n">
-        <v>-39065.96589855662</v>
+        <v>4195231.328614137</v>
       </c>
       <c r="D18" t="n">
-        <v>1280460.97717978</v>
+        <v>3877636.461996844</v>
       </c>
       <c r="E18" t="n">
-        <v>939953.5880010404</v>
+        <v>4070872.992914575</v>
       </c>
       <c r="F18" t="n">
-        <v>342011.2655253883</v>
+        <v>3988834.354569615</v>
       </c>
       <c r="G18" t="n">
-        <v>4749558.804479756</v>
+        <v>4690254.379814494</v>
       </c>
       <c r="H18" t="n">
-        <v>138631.2706772144</v>
+        <v>3013638.67386877</v>
       </c>
       <c r="I18" t="n">
-        <v>1015257.938798447</v>
+        <v>4458791.437635401</v>
       </c>
       <c r="J18" t="n">
-        <v>1364003.949407344</v>
+        <v>2322044.164758085</v>
       </c>
       <c r="K18" t="n">
-        <v>1054408.432928734</v>
+        <v>4792653.835739883</v>
       </c>
       <c r="L18" t="n">
-        <v>669276.9083559728</v>
+        <v>6928851.133765545</v>
       </c>
       <c r="M18" t="n">
-        <v>1388171.893401787</v>
+        <v>2749364.805696831</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-316.1027358413558</v>
+        <v>6470208.322464931</v>
       </c>
       <c r="C19" t="n">
-        <v>-6885.791338008942</v>
+        <v>6105317.720944528</v>
       </c>
       <c r="D19" t="n">
-        <v>-22304.31826967957</v>
+        <v>5888386.880931178</v>
       </c>
       <c r="E19" t="n">
-        <v>-30859.74011792721</v>
+        <v>6086784.661250595</v>
       </c>
       <c r="F19" t="n">
-        <v>-23402.01566884325</v>
+        <v>4673480.737260382</v>
       </c>
       <c r="G19" t="n">
-        <v>-49617.34752532386</v>
+        <v>3289921.710821463</v>
       </c>
       <c r="H19" t="n">
-        <v>-24165.32763219476</v>
+        <v>4874835.038273322</v>
       </c>
       <c r="I19" t="n">
-        <v>-52603.11202548493</v>
+        <v>5914397.528827263</v>
       </c>
       <c r="J19" t="n">
-        <v>-91577.40821649504</v>
+        <v>3539084.779290084</v>
       </c>
       <c r="K19" t="n">
-        <v>-74417.8121535267</v>
+        <v>3121699.312757208</v>
       </c>
       <c r="L19" t="n">
-        <v>-93492.85657333404</v>
+        <v>6056081.89037564</v>
       </c>
       <c r="M19" t="n">
-        <v>-46077.51133203513</v>
+        <v>5188527.839000966</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1058465.982708413</v>
+        <v>4379847.446385004</v>
       </c>
       <c r="C20" t="n">
-        <v>1255168.132658482</v>
+        <v>4337148.107294537</v>
       </c>
       <c r="D20" t="n">
-        <v>2710969.93435668</v>
+        <v>3788657.873031633</v>
       </c>
       <c r="E20" t="n">
-        <v>1230335.914853463</v>
+        <v>4274690.012405226</v>
       </c>
       <c r="F20" t="n">
-        <v>1715938.749704174</v>
+        <v>4190450.34059083</v>
       </c>
       <c r="G20" t="n">
-        <v>2291420.093360759</v>
+        <v>3265338.973953814</v>
       </c>
       <c r="H20" t="n">
-        <v>662059.5889076666</v>
+        <v>3790338.269829746</v>
       </c>
       <c r="I20" t="n">
-        <v>1217137.792275687</v>
+        <v>3380084.601583411</v>
       </c>
       <c r="J20" t="n">
-        <v>1462654.44732051</v>
+        <v>3070290.213849777</v>
       </c>
       <c r="K20" t="n">
-        <v>1623802.941115937</v>
+        <v>3243812.354832631</v>
       </c>
       <c r="L20" t="n">
-        <v>1141101.321947795</v>
+        <v>5512620.328709487</v>
       </c>
       <c r="M20" t="n">
-        <v>1376681.233287692</v>
+        <v>3931183.595476183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1092976.646861288</v>
+        <v>2333964.361664049</v>
       </c>
       <c r="C21" t="n">
-        <v>891102.2451664428</v>
+        <v>2385864.391563979</v>
       </c>
       <c r="D21" t="n">
-        <v>799288.6459870618</v>
+        <v>3425982.533763636</v>
       </c>
       <c r="E21" t="n">
-        <v>1210785.664619328</v>
+        <v>3636385.786521101</v>
       </c>
       <c r="F21" t="n">
-        <v>996761.2983997355</v>
+        <v>3422653.750483809</v>
       </c>
       <c r="G21" t="n">
-        <v>702775.2551026541</v>
+        <v>2956073.96251971</v>
       </c>
       <c r="H21" t="n">
-        <v>680902.1702715912</v>
+        <v>2332572.684639195</v>
       </c>
       <c r="I21" t="n">
-        <v>1701511.671460166</v>
+        <v>2782872.051881483</v>
       </c>
       <c r="J21" t="n">
-        <v>1336873.707545904</v>
+        <v>2755294.905763162</v>
       </c>
       <c r="K21" t="n">
-        <v>1836523.517255047</v>
+        <v>3993572.342962103</v>
       </c>
       <c r="L21" t="n">
-        <v>782816.4458291114</v>
+        <v>3534079.058842172</v>
       </c>
       <c r="M21" t="n">
-        <v>1403044.695835026</v>
+        <v>2248729.846602998</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>478086.7530586368</v>
+        <v>9060810.346991446</v>
       </c>
       <c r="C22" t="n">
-        <v>50736.54050833007</v>
+        <v>12598812.75091759</v>
       </c>
       <c r="D22" t="n">
-        <v>188333.430760783</v>
+        <v>14831971.4115161</v>
       </c>
       <c r="E22" t="n">
-        <v>544271.384238867</v>
+        <v>12821469.7394934</v>
       </c>
       <c r="F22" t="n">
-        <v>1395147.300616918</v>
+        <v>11869627.51560444</v>
       </c>
       <c r="G22" t="n">
-        <v>2138550.769769859</v>
+        <v>10421483.32196212</v>
       </c>
       <c r="H22" t="n">
-        <v>2111537.948697354</v>
+        <v>11035977.93331425</v>
       </c>
       <c r="I22" t="n">
-        <v>1841569.984598676</v>
+        <v>11256900.3718325</v>
       </c>
       <c r="J22" t="n">
-        <v>2481522.623620622</v>
+        <v>14614443.44043249</v>
       </c>
       <c r="K22" t="n">
-        <v>2081798.428757305</v>
+        <v>10674880.65908448</v>
       </c>
       <c r="L22" t="n">
-        <v>1250266.670889618</v>
+        <v>12316616.26446427</v>
       </c>
       <c r="M22" t="n">
-        <v>1177148.372186737</v>
+        <v>12812673.90760008</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-34971.01562650639</v>
+        <v>3889087.674518193</v>
       </c>
       <c r="C23" t="n">
-        <v>36030.3583324954</v>
+        <v>7922085.698173937</v>
       </c>
       <c r="D23" t="n">
-        <v>147476.6702615819</v>
+        <v>10557472.84915288</v>
       </c>
       <c r="E23" t="n">
-        <v>51856.75370824234</v>
+        <v>8985725.605466852</v>
       </c>
       <c r="F23" t="n">
-        <v>252630.1923718893</v>
+        <v>7206991.250010617</v>
       </c>
       <c r="G23" t="n">
-        <v>-193373.871222773</v>
+        <v>4127881.150059246</v>
       </c>
       <c r="H23" t="n">
-        <v>443746.5112841906</v>
+        <v>3010749.350296337</v>
       </c>
       <c r="I23" t="n">
-        <v>502010.3320978333</v>
+        <v>5868895.563604835</v>
       </c>
       <c r="J23" t="n">
-        <v>570643.3689781987</v>
+        <v>5579937.730112063</v>
       </c>
       <c r="K23" t="n">
-        <v>-186584.9409570089</v>
+        <v>3591963.76485727</v>
       </c>
       <c r="L23" t="n">
-        <v>432834.6436880148</v>
+        <v>5270702.931337565</v>
       </c>
       <c r="M23" t="n">
-        <v>-95754.16285634245</v>
+        <v>4817884.2090631</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7659004.089548578</v>
+        <v>9449999.360692265</v>
       </c>
       <c r="C24" t="n">
-        <v>6569499.433843886</v>
+        <v>5451730.485696295</v>
       </c>
       <c r="D24" t="n">
-        <v>7041678.069830697</v>
+        <v>10158352.01753916</v>
       </c>
       <c r="E24" t="n">
-        <v>7975680.428703356</v>
+        <v>14314650.57669473</v>
       </c>
       <c r="F24" t="n">
-        <v>7211805.971042288</v>
+        <v>10977165.64578539</v>
       </c>
       <c r="G24" t="n">
-        <v>10981628.00059997</v>
+        <v>5748775.921390763</v>
       </c>
       <c r="H24" t="n">
-        <v>5322416.275710389</v>
+        <v>11730485.65626076</v>
       </c>
       <c r="I24" t="n">
-        <v>7163073.095464915</v>
+        <v>12454986.4934885</v>
       </c>
       <c r="J24" t="n">
-        <v>9740590.699818093</v>
+        <v>12565561.15627476</v>
       </c>
       <c r="K24" t="n">
-        <v>8360259.446488206</v>
+        <v>8536083.598842105</v>
       </c>
       <c r="L24" t="n">
-        <v>8393493.483397717</v>
+        <v>10518543.83822075</v>
       </c>
       <c r="M24" t="n">
-        <v>7866852.943000208</v>
+        <v>10487759.04204106</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3772896.239316319</v>
+        <v>5284829.597076596</v>
       </c>
       <c r="C25" t="n">
-        <v>3766001.775046356</v>
+        <v>5660070.088632001</v>
       </c>
       <c r="D25" t="n">
-        <v>3745393.307278962</v>
+        <v>6785396.812337979</v>
       </c>
       <c r="E25" t="n">
-        <v>3757771.400953333</v>
+        <v>6571872.164895256</v>
       </c>
       <c r="F25" t="n">
-        <v>3709174.440138468</v>
+        <v>8376633.630604121</v>
       </c>
       <c r="G25" t="n">
-        <v>4422561.021468065</v>
+        <v>4046928.744912236</v>
       </c>
       <c r="H25" t="n">
-        <v>1396274.6248184</v>
+        <v>5966659.678349574</v>
       </c>
       <c r="I25" t="n">
-        <v>4594450.199931226</v>
+        <v>8763516.148043647</v>
       </c>
       <c r="J25" t="n">
-        <v>3550552.933762603</v>
+        <v>6194020.406363635</v>
       </c>
       <c r="K25" t="n">
-        <v>3920427.360496125</v>
+        <v>3679230.355248773</v>
       </c>
       <c r="L25" t="n">
-        <v>2950789.163656314</v>
+        <v>4493253.714953675</v>
       </c>
       <c r="M25" t="n">
-        <v>5404435.531747704</v>
+        <v>6693164.159965766</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10838411.28400719</v>
+        <v>10401871.2080267</v>
       </c>
       <c r="C26" t="n">
-        <v>9314841.780266846</v>
+        <v>11710851.37663475</v>
       </c>
       <c r="D26" t="n">
-        <v>10385615.25571842</v>
+        <v>13340663.34019672</v>
       </c>
       <c r="E26" t="n">
-        <v>8725529.485516405</v>
+        <v>12969812.25645456</v>
       </c>
       <c r="F26" t="n">
-        <v>6026793.127683529</v>
+        <v>12654431.72380633</v>
       </c>
       <c r="G26" t="n">
-        <v>13175594.60594074</v>
+        <v>9224145.648508281</v>
       </c>
       <c r="H26" t="n">
-        <v>9391533.82896878</v>
+        <v>11169554.65214696</v>
       </c>
       <c r="I26" t="n">
-        <v>9230077.644034676</v>
+        <v>13916946.14199128</v>
       </c>
       <c r="J26" t="n">
-        <v>10503820.40412213</v>
+        <v>9840122.552907765</v>
       </c>
       <c r="K26" t="n">
-        <v>21024970.40009194</v>
+        <v>9611839.100610917</v>
       </c>
       <c r="L26" t="n">
-        <v>12947134.21566564</v>
+        <v>11391438.84269878</v>
       </c>
       <c r="M26" t="n">
-        <v>16256243.88043747</v>
+        <v>13543451.94080967</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12478862.66152867</v>
+        <v>4285774.347198106</v>
       </c>
       <c r="C27" t="n">
-        <v>14740565.08170673</v>
+        <v>4362290.2325722</v>
       </c>
       <c r="D27" t="n">
-        <v>13281367.45682222</v>
+        <v>3775721.992284607</v>
       </c>
       <c r="E27" t="n">
-        <v>14969576.73047535</v>
+        <v>4512490.146491361</v>
       </c>
       <c r="F27" t="n">
-        <v>19574262.51464747</v>
+        <v>5949024.919970076</v>
       </c>
       <c r="G27" t="n">
-        <v>31948907.84962239</v>
+        <v>4688601.310355903</v>
       </c>
       <c r="H27" t="n">
-        <v>13128634.46952238</v>
+        <v>4830021.130528967</v>
       </c>
       <c r="I27" t="n">
-        <v>7624726.267674259</v>
+        <v>6521243.117518117</v>
       </c>
       <c r="J27" t="n">
-        <v>12796308.34394239</v>
+        <v>5528232.168053214</v>
       </c>
       <c r="K27" t="n">
-        <v>18316806.34271466</v>
+        <v>2620187.695574821</v>
       </c>
       <c r="L27" t="n">
-        <v>10893273.8820342</v>
+        <v>3701586.556499901</v>
       </c>
       <c r="M27" t="n">
-        <v>14600697.96540599</v>
+        <v>6886137.590997445</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-20943867.57160635</v>
+        <v>19250923.78111787</v>
       </c>
       <c r="C28" t="n">
-        <v>5066420.917514442</v>
+        <v>14148159.65971817</v>
       </c>
       <c r="D28" t="n">
-        <v>7667491.821681281</v>
+        <v>14084996.82273827</v>
       </c>
       <c r="E28" t="n">
-        <v>5057125.947399557</v>
+        <v>6677758.821185873</v>
       </c>
       <c r="F28" t="n">
-        <v>7663290.071000094</v>
+        <v>11007507.10320417</v>
       </c>
       <c r="G28" t="n">
-        <v>12990417.73851272</v>
+        <v>15299075.4835979</v>
       </c>
       <c r="H28" t="n">
-        <v>-4162140.949442925</v>
+        <v>16679816.25363649</v>
       </c>
       <c r="I28" t="n">
-        <v>-7452492.69304984</v>
+        <v>12098400.87954388</v>
       </c>
       <c r="J28" t="n">
-        <v>25460933.79298987</v>
+        <v>16289868.25920122</v>
       </c>
       <c r="K28" t="n">
-        <v>4193244.298582397</v>
+        <v>10129118.27997231</v>
       </c>
       <c r="L28" t="n">
-        <v>-30795036.95813185</v>
+        <v>16576896.44568436</v>
       </c>
       <c r="M28" t="n">
-        <v>-25363830.23743369</v>
+        <v>26419921.31231212</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1256270.839438776</v>
+        <v>7791848.211461917</v>
       </c>
       <c r="C29" t="n">
-        <v>2229149.968608056</v>
+        <v>-3179262.630929238</v>
       </c>
       <c r="D29" t="n">
-        <v>7818773.35754304</v>
+        <v>4516522.366189595</v>
       </c>
       <c r="E29" t="n">
-        <v>13548703.85867809</v>
+        <v>2253270.586939625</v>
       </c>
       <c r="F29" t="n">
-        <v>15299232.87307751</v>
+        <v>308942.5494622171</v>
       </c>
       <c r="G29" t="n">
-        <v>7901652.523365029</v>
+        <v>4160297.219216818</v>
       </c>
       <c r="H29" t="n">
-        <v>6247615.934036313</v>
+        <v>2455894.660053341</v>
       </c>
       <c r="I29" t="n">
-        <v>8481413.082167991</v>
+        <v>3170056.774905042</v>
       </c>
       <c r="J29" t="n">
-        <v>13544425.97324395</v>
+        <v>4738354.68381872</v>
       </c>
       <c r="K29" t="n">
-        <v>9595295.998100407</v>
+        <v>3381918.257908388</v>
       </c>
       <c r="L29" t="n">
-        <v>8311801.357335309</v>
+        <v>6696662.66092506</v>
       </c>
       <c r="M29" t="n">
-        <v>-2897364.928826829</v>
+        <v>4657874.480994469</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>34690092.49552166</v>
+        <v>909475.3363645417</v>
       </c>
       <c r="C30" t="n">
-        <v>30859947.80003959</v>
+        <v>-357218.4289459068</v>
       </c>
       <c r="D30" t="n">
-        <v>38382188.9773685</v>
+        <v>465436.3753026375</v>
       </c>
       <c r="E30" t="n">
-        <v>48076750.0985651</v>
+        <v>458028.3400805907</v>
       </c>
       <c r="F30" t="n">
-        <v>41454756.98234627</v>
+        <v>1684603.117723827</v>
       </c>
       <c r="G30" t="n">
-        <v>31717240.7328141</v>
+        <v>411522.3497482843</v>
       </c>
       <c r="H30" t="n">
-        <v>33731715.01783911</v>
+        <v>216288.2345238801</v>
       </c>
       <c r="I30" t="n">
-        <v>30049601.63174889</v>
+        <v>-264183.0118246117</v>
       </c>
       <c r="J30" t="n">
-        <v>38549599.3148777</v>
+        <v>1508168.291174634</v>
       </c>
       <c r="K30" t="n">
-        <v>30995012.39445028</v>
+        <v>367309.4158489789</v>
       </c>
       <c r="L30" t="n">
-        <v>27444493.45899718</v>
+        <v>-114565.4094662567</v>
       </c>
       <c r="M30" t="n">
-        <v>37125893.86896892</v>
+        <v>315954.8778766156</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34111188.90232953</v>
+        <v>684848.3115039222</v>
       </c>
       <c r="C31" t="n">
-        <v>43904376.56031276</v>
+        <v>1120540.577627529</v>
       </c>
       <c r="D31" t="n">
-        <v>43352672.54942938</v>
+        <v>836184.0085522507</v>
       </c>
       <c r="E31" t="n">
-        <v>43872290.9272771</v>
+        <v>1029506.44238641</v>
       </c>
       <c r="F31" t="n">
-        <v>41334991.40761873</v>
+        <v>626374.696099185</v>
       </c>
       <c r="G31" t="n">
-        <v>40761264.26546954</v>
+        <v>678929.0604439122</v>
       </c>
       <c r="H31" t="n">
-        <v>29947926.11068316</v>
+        <v>1120511.060939992</v>
       </c>
       <c r="I31" t="n">
-        <v>32891195.2281307</v>
+        <v>989182.629516511</v>
       </c>
       <c r="J31" t="n">
-        <v>37675315.67546361</v>
+        <v>1131782.924071603</v>
       </c>
       <c r="K31" t="n">
-        <v>35935483.21967494</v>
+        <v>876824.9079556525</v>
       </c>
       <c r="L31" t="n">
-        <v>28558387.18521981</v>
+        <v>563831.4636501861</v>
       </c>
       <c r="M31" t="n">
-        <v>37133474.27741419</v>
+        <v>779808.5691811653</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-997264.3350337461</v>
+        <v>2172180.62139948</v>
       </c>
       <c r="C32" t="n">
-        <v>17586.97474864322</v>
+        <v>2661046.137432074</v>
       </c>
       <c r="D32" t="n">
-        <v>70681.99394832701</v>
+        <v>2493868.653836639</v>
       </c>
       <c r="E32" t="n">
-        <v>-72967.36662625631</v>
+        <v>1479126.774890847</v>
       </c>
       <c r="F32" t="n">
-        <v>-271514.0973267436</v>
+        <v>2730069.220920953</v>
       </c>
       <c r="G32" t="n">
-        <v>658863.9130622565</v>
+        <v>1700261.795247781</v>
       </c>
       <c r="H32" t="n">
-        <v>188341.2146045435</v>
+        <v>2098805.51516562</v>
       </c>
       <c r="I32" t="n">
-        <v>766001.8329939116</v>
+        <v>2048645.381077213</v>
       </c>
       <c r="J32" t="n">
-        <v>4954098.550007281</v>
+        <v>3128787.724531483</v>
       </c>
       <c r="K32" t="n">
-        <v>201746.0960682817</v>
+        <v>2115282.315434629</v>
       </c>
       <c r="L32" t="n">
-        <v>-978792.3102819854</v>
+        <v>3285609.516537549</v>
       </c>
       <c r="M32" t="n">
-        <v>-3525027.524408246</v>
+        <v>2139058.955894241</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>896059.0755569619</v>
+        <v>3108320.491793166</v>
       </c>
       <c r="C33" t="n">
-        <v>3919319.698397851</v>
+        <v>4042787.067625133</v>
       </c>
       <c r="D33" t="n">
-        <v>4688346.535322291</v>
+        <v>2251950.091527648</v>
       </c>
       <c r="E33" t="n">
-        <v>2366876.324153519</v>
+        <v>2290389.087029888</v>
       </c>
       <c r="F33" t="n">
-        <v>5729132.610340525</v>
+        <v>2653431.312361405</v>
       </c>
       <c r="G33" t="n">
-        <v>5916310.366982619</v>
+        <v>3883398.03659506</v>
       </c>
       <c r="H33" t="n">
-        <v>3537933.197832718</v>
+        <v>1389644.833825859</v>
       </c>
       <c r="I33" t="n">
-        <v>283364.5411988728</v>
+        <v>3430803.727664644</v>
       </c>
       <c r="J33" t="n">
-        <v>2049303.467910362</v>
+        <v>1303113.425165117</v>
       </c>
       <c r="K33" t="n">
-        <v>8214122.452980187</v>
+        <v>2187500.527650341</v>
       </c>
       <c r="L33" t="n">
-        <v>3447308.553740204</v>
+        <v>4288887.604750946</v>
       </c>
       <c r="M33" t="n">
-        <v>779856.5904382775</v>
+        <v>5186366.324061103</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9912004.279038725</v>
+        <v>2543022.571063817</v>
       </c>
       <c r="C34" t="n">
-        <v>243893.4341036762</v>
+        <v>1781627.17653101</v>
       </c>
       <c r="D34" t="n">
-        <v>15225887.27469486</v>
+        <v>2822015.202212031</v>
       </c>
       <c r="E34" t="n">
-        <v>11361221.93505919</v>
+        <v>3280523.624599244</v>
       </c>
       <c r="F34" t="n">
-        <v>19162007.40034007</v>
+        <v>3789341.038564507</v>
       </c>
       <c r="G34" t="n">
-        <v>16378627.42293749</v>
+        <v>2815328.217603848</v>
       </c>
       <c r="H34" t="n">
-        <v>17166250.66638331</v>
+        <v>2028479.416334313</v>
       </c>
       <c r="I34" t="n">
-        <v>5066844.009310443</v>
+        <v>3313035.923934815</v>
       </c>
       <c r="J34" t="n">
-        <v>9617467.940654458</v>
+        <v>3060480.953370685</v>
       </c>
       <c r="K34" t="n">
-        <v>14344412.95216905</v>
+        <v>2474922.090931137</v>
       </c>
       <c r="L34" t="n">
-        <v>11003340.36389248</v>
+        <v>2639908.604622069</v>
       </c>
       <c r="M34" t="n">
-        <v>9401760.156495435</v>
+        <v>2770975.049453356</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6404767.087613426</v>
+        <v>2497167.091032071</v>
       </c>
       <c r="C35" t="n">
-        <v>4310349.883272874</v>
+        <v>2379419.164695377</v>
       </c>
       <c r="D35" t="n">
-        <v>4943226.441012913</v>
+        <v>2428582.892963792</v>
       </c>
       <c r="E35" t="n">
-        <v>10138548.90666336</v>
+        <v>2062812.62830919</v>
       </c>
       <c r="F35" t="n">
-        <v>8918840.958047785</v>
+        <v>2633429.377204129</v>
       </c>
       <c r="G35" t="n">
-        <v>6038727.247340242</v>
+        <v>2257526.444546807</v>
       </c>
       <c r="H35" t="n">
-        <v>5902749.609366432</v>
+        <v>875552.7212510372</v>
       </c>
       <c r="I35" t="n">
-        <v>1072045.089499504</v>
+        <v>2759068.56916959</v>
       </c>
       <c r="J35" t="n">
-        <v>758178.7845897111</v>
+        <v>1722559.196469868</v>
       </c>
       <c r="K35" t="n">
-        <v>368102.5383541431</v>
+        <v>1441687.045656289</v>
       </c>
       <c r="L35" t="n">
-        <v>4697341.896675781</v>
+        <v>2553346.230130031</v>
       </c>
       <c r="M35" t="n">
-        <v>12588817.12292177</v>
+        <v>3303362.688023985</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3084225.606979399</v>
+        <v>1387570.247149376</v>
       </c>
       <c r="C36" t="n">
-        <v>3715931.704102293</v>
+        <v>1614224.754092742</v>
       </c>
       <c r="D36" t="n">
-        <v>4423473.932560558</v>
+        <v>1617183.028794995</v>
       </c>
       <c r="E36" t="n">
-        <v>3989304.411341295</v>
+        <v>1331418.239622223</v>
       </c>
       <c r="F36" t="n">
-        <v>4084315.424873452</v>
+        <v>1215982.523231305</v>
       </c>
       <c r="G36" t="n">
-        <v>3943439.886680194</v>
+        <v>1219334.945982338</v>
       </c>
       <c r="H36" t="n">
-        <v>4666097.655622923</v>
+        <v>1780165.291029233</v>
       </c>
       <c r="I36" t="n">
-        <v>3023825.048275023</v>
+        <v>1815418.283931757</v>
       </c>
       <c r="J36" t="n">
-        <v>4463585.493057877</v>
+        <v>1232490.010382387</v>
       </c>
       <c r="K36" t="n">
-        <v>2199318.265419823</v>
+        <v>1454050.698550956</v>
       </c>
       <c r="L36" t="n">
-        <v>4691764.498496773</v>
+        <v>2186276.276676998</v>
       </c>
       <c r="M36" t="n">
-        <v>6820240.87045307</v>
+        <v>2089788.000672508</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9155681.374272047</v>
+        <v>5285715.607423739</v>
       </c>
       <c r="C37" t="n">
-        <v>6247670.697591403</v>
+        <v>4554993.902306194</v>
       </c>
       <c r="D37" t="n">
-        <v>5935057.202895764</v>
+        <v>6050791.200296964</v>
       </c>
       <c r="E37" t="n">
-        <v>5879171.020087986</v>
+        <v>5033468.834303448</v>
       </c>
       <c r="F37" t="n">
-        <v>6275604.235848293</v>
+        <v>4415050.703392494</v>
       </c>
       <c r="G37" t="n">
-        <v>4957832.83281213</v>
+        <v>3482601.676950397</v>
       </c>
       <c r="H37" t="n">
-        <v>3664798.442815506</v>
+        <v>3365563.903616067</v>
       </c>
       <c r="I37" t="n">
-        <v>5332620.705153303</v>
+        <v>5970503.357110925</v>
       </c>
       <c r="J37" t="n">
-        <v>6218063.686220208</v>
+        <v>3485369.135325212</v>
       </c>
       <c r="K37" t="n">
-        <v>3918371.029190187</v>
+        <v>2977168.393391638</v>
       </c>
       <c r="L37" t="n">
-        <v>3675751.655822737</v>
+        <v>5635206.202624558</v>
       </c>
       <c r="M37" t="n">
-        <v>6927985.495850567</v>
+        <v>5926008.002305211</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2614385.615949391</v>
+        <v>4201558.203066928</v>
       </c>
       <c r="C38" t="n">
-        <v>4503134.664407004</v>
+        <v>5047698.872098221</v>
       </c>
       <c r="D38" t="n">
-        <v>4433863.576751282</v>
+        <v>4550534.962474721</v>
       </c>
       <c r="E38" t="n">
-        <v>3833993.898474815</v>
+        <v>3800340.353721668</v>
       </c>
       <c r="F38" t="n">
-        <v>4314861.251638054</v>
+        <v>4105354.369805295</v>
       </c>
       <c r="G38" t="n">
-        <v>4230857.501079688</v>
+        <v>2813965.648803057</v>
       </c>
       <c r="H38" t="n">
-        <v>3357524.385478281</v>
+        <v>4338650.561306993</v>
       </c>
       <c r="I38" t="n">
-        <v>3913273.799947561</v>
+        <v>3466993.000098495</v>
       </c>
       <c r="J38" t="n">
-        <v>3476122.760671048</v>
+        <v>3864539.120378357</v>
       </c>
       <c r="K38" t="n">
-        <v>3120802.581507448</v>
+        <v>4808130.71937274</v>
       </c>
       <c r="L38" t="n">
-        <v>3295202.151079409</v>
+        <v>4952765.785383637</v>
       </c>
       <c r="M38" t="n">
-        <v>5654817.158031555</v>
+        <v>4982650.426915333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2119205.951203117</v>
+        <v>6370044.711349213</v>
       </c>
       <c r="C39" t="n">
-        <v>2408146.561952222</v>
+        <v>6193399.687869432</v>
       </c>
       <c r="D39" t="n">
-        <v>2405480.3719174</v>
+        <v>7186661.196981295</v>
       </c>
       <c r="E39" t="n">
-        <v>3381376.233862788</v>
+        <v>4993381.198636711</v>
       </c>
       <c r="F39" t="n">
-        <v>3502860.645974698</v>
+        <v>5706224.546746622</v>
       </c>
       <c r="G39" t="n">
-        <v>3259607.259533712</v>
+        <v>4798613.958471366</v>
       </c>
       <c r="H39" t="n">
-        <v>2764863.878404719</v>
+        <v>3575107.526821436</v>
       </c>
       <c r="I39" t="n">
-        <v>2163181.009863593</v>
+        <v>4408611.278102982</v>
       </c>
       <c r="J39" t="n">
-        <v>2655552.563209523</v>
+        <v>6007029.287904476</v>
       </c>
       <c r="K39" t="n">
-        <v>2561616.041734418</v>
+        <v>6829012.76083918</v>
       </c>
       <c r="L39" t="n">
-        <v>3695143.229463608</v>
+        <v>7601667.564880613</v>
       </c>
       <c r="M39" t="n">
-        <v>3186209.515126851</v>
+        <v>8040168.613831489</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8686217.437375825</v>
+        <v>4933843.149134538</v>
       </c>
       <c r="C40" t="n">
-        <v>9061960.98155391</v>
+        <v>6009125.000355587</v>
       </c>
       <c r="D40" t="n">
-        <v>12439648.68733614</v>
+        <v>6054727.38397375</v>
       </c>
       <c r="E40" t="n">
-        <v>14684949.13155268</v>
+        <v>5379875.980644686</v>
       </c>
       <c r="F40" t="n">
-        <v>12611051.8206107</v>
+        <v>5759925.759039368</v>
       </c>
       <c r="G40" t="n">
-        <v>11613001.61989929</v>
+        <v>4113120.822924044</v>
       </c>
       <c r="H40" t="n">
-        <v>10052680.61599376</v>
+        <v>3982743.885587833</v>
       </c>
       <c r="I40" t="n">
-        <v>10742534.65187584</v>
+        <v>4570917.508597039</v>
       </c>
       <c r="J40" t="n">
-        <v>11018968.62751758</v>
+        <v>6164632.601571956</v>
       </c>
       <c r="K40" t="n">
-        <v>14066576.97173633</v>
+        <v>5224067.798785337</v>
       </c>
       <c r="L40" t="n">
-        <v>10303252.97409416</v>
+        <v>6166526.001530317</v>
       </c>
       <c r="M40" t="n">
-        <v>11817245.61964605</v>
+        <v>5818936.398898233</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8119203.086860649</v>
+        <v>3672535.700108383</v>
       </c>
       <c r="C41" t="n">
-        <v>4194723.480309543</v>
+        <v>3520790.058975233</v>
       </c>
       <c r="D41" t="n">
-        <v>8280971.082958877</v>
+        <v>3161598.868973129</v>
       </c>
       <c r="E41" t="n">
-        <v>10949559.16448242</v>
+        <v>2875661.95849293</v>
       </c>
       <c r="F41" t="n">
-        <v>9231274.895077335</v>
+        <v>3902537.723482423</v>
       </c>
       <c r="G41" t="n">
-        <v>7319742.843095566</v>
+        <v>3298842.810267627</v>
       </c>
       <c r="H41" t="n">
-        <v>4120537.767180881</v>
+        <v>1917787.075558804</v>
       </c>
       <c r="I41" t="n">
-        <v>3040589.333754886</v>
+        <v>3365787.562233434</v>
       </c>
       <c r="J41" t="n">
-        <v>6052273.834768721</v>
+        <v>3012439.889040563</v>
       </c>
       <c r="K41" t="n">
-        <v>5640510.037982366</v>
+        <v>2933237.353014968</v>
       </c>
       <c r="L41" t="n">
-        <v>3461393.149473973</v>
+        <v>3515648.384658651</v>
       </c>
       <c r="M41" t="n">
-        <v>5179573.669341422</v>
+        <v>3974754.251568802</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>11659815.09232919</v>
+        <v>4501698.849368851</v>
       </c>
       <c r="C42" t="n">
-        <v>8556703.910744667</v>
+        <v>5801346.496087764</v>
       </c>
       <c r="D42" t="n">
-        <v>5016282.641334793</v>
+        <v>4537487.472744916</v>
       </c>
       <c r="E42" t="n">
-        <v>9871275.118069896</v>
+        <v>4918591.452061645</v>
       </c>
       <c r="F42" t="n">
-        <v>13862026.78978245</v>
+        <v>4358896.426472405</v>
       </c>
       <c r="G42" t="n">
-        <v>11071207.54393047</v>
+        <v>3459695.940787511</v>
       </c>
       <c r="H42" t="n">
-        <v>5800843.678221837</v>
+        <v>3305944.046009236</v>
       </c>
       <c r="I42" t="n">
-        <v>11496987.95727712</v>
+        <v>4527474.765860291</v>
       </c>
       <c r="J42" t="n">
-        <v>12127084.89968608</v>
+        <v>3975870.550088303</v>
       </c>
       <c r="K42" t="n">
-        <v>12613930.47070025</v>
+        <v>3534529.138923957</v>
       </c>
       <c r="L42" t="n">
-        <v>8912119.567256231</v>
+        <v>4250255.902937672</v>
       </c>
       <c r="M42" t="n">
-        <v>10925280.57744275</v>
+        <v>5408741.041651032</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5942129.379947233</v>
+        <v>2687030.845348881</v>
       </c>
       <c r="C43" t="n">
-        <v>5206204.533754944</v>
+        <v>2759105.601097511</v>
       </c>
       <c r="D43" t="n">
-        <v>5592814.264231146</v>
+        <v>3358288.677827643</v>
       </c>
       <c r="E43" t="n">
-        <v>6771420.057254761</v>
+        <v>3941263.974603775</v>
       </c>
       <c r="F43" t="n">
-        <v>6602628.100681067</v>
+        <v>3112328.209454039</v>
       </c>
       <c r="G43" t="n">
-        <v>8462118.906578671</v>
+        <v>2364887.931024312</v>
       </c>
       <c r="H43" t="n">
-        <v>4107727.750720599</v>
+        <v>1724323.618797892</v>
       </c>
       <c r="I43" t="n">
-        <v>6043720.386298805</v>
+        <v>3303807.692612239</v>
       </c>
       <c r="J43" t="n">
-        <v>8831199.538625142</v>
+        <v>2333847.552632218</v>
       </c>
       <c r="K43" t="n">
-        <v>6287292.255376085</v>
+        <v>2750001.427501414</v>
       </c>
       <c r="L43" t="n">
-        <v>3785565.87610896</v>
+        <v>3280804.428141645</v>
       </c>
       <c r="M43" t="n">
-        <v>4638670.620983465</v>
+        <v>3215393.675326419</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6590456.108622992</v>
+        <v>5677323.583055491</v>
       </c>
       <c r="C44" t="n">
-        <v>10472082.11857338</v>
+        <v>5902633.208220166</v>
       </c>
       <c r="D44" t="n">
-        <v>11634468.26634973</v>
+        <v>5549803.075594679</v>
       </c>
       <c r="E44" t="n">
-        <v>13206360.54182453</v>
+        <v>5951068.900054917</v>
       </c>
       <c r="F44" t="n">
-        <v>12741407.01728791</v>
+        <v>6575151.911913578</v>
       </c>
       <c r="G44" t="n">
-        <v>12409853.98882411</v>
+        <v>4891799.063636073</v>
       </c>
       <c r="H44" t="n">
-        <v>8966771.453678498</v>
+        <v>4191887.408738851</v>
       </c>
       <c r="I44" t="n">
-        <v>10798538.72240552</v>
+        <v>5598555.38085479</v>
       </c>
       <c r="J44" t="n">
-        <v>13513091.96072657</v>
+        <v>5037497.766933032</v>
       </c>
       <c r="K44" t="n">
-        <v>9563029.816686751</v>
+        <v>4690602.644326478</v>
       </c>
       <c r="L44" t="n">
-        <v>9264573.831705384</v>
+        <v>5985025.067236309</v>
       </c>
       <c r="M44" t="n">
-        <v>10947800.18961201</v>
+        <v>6824469.358149961</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4845097.984668209</v>
+        <v>2874666.47558596</v>
       </c>
       <c r="C45" t="n">
-        <v>4149433.574898084</v>
+        <v>3260900.566026593</v>
       </c>
       <c r="D45" t="n">
-        <v>4246927.703888863</v>
+        <v>3081909.929641861</v>
       </c>
       <c r="E45" t="n">
-        <v>3725206.891770725</v>
+        <v>3913518.907391594</v>
       </c>
       <c r="F45" t="n">
-        <v>4498132.266540855</v>
+        <v>3164302.255266587</v>
       </c>
       <c r="G45" t="n">
-        <v>5940087.875889696</v>
+        <v>1820465.595162581</v>
       </c>
       <c r="H45" t="n">
-        <v>4699457.538289338</v>
+        <v>3042647.613758989</v>
       </c>
       <c r="I45" t="n">
-        <v>4818444.896445901</v>
+        <v>3664565.96185019</v>
       </c>
       <c r="J45" t="n">
-        <v>6484030.124250593</v>
+        <v>3209603.383372976</v>
       </c>
       <c r="K45" t="n">
-        <v>5545509.732014325</v>
+        <v>2554242.806507394</v>
       </c>
       <c r="L45" t="n">
-        <v>2701619.605599126</v>
+        <v>3331721.804242068</v>
       </c>
       <c r="M45" t="n">
-        <v>3794342.10550697</v>
+        <v>3680201.939542682</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>18031631.53455037</v>
+        <v>2152898.595975074</v>
       </c>
       <c r="C46" t="n">
-        <v>17130499.4978188</v>
+        <v>1986449.935427149</v>
       </c>
       <c r="D46" t="n">
-        <v>12785776.63670387</v>
+        <v>2627465.815782706</v>
       </c>
       <c r="E46" t="n">
-        <v>13504212.46097614</v>
+        <v>2153724.262201094</v>
       </c>
       <c r="F46" t="n">
-        <v>6858808.167358872</v>
+        <v>2049608.827184375</v>
       </c>
       <c r="G46" t="n">
-        <v>11534825.2253147</v>
+        <v>1370617.2816821</v>
       </c>
       <c r="H46" t="n">
-        <v>15630944.46943267</v>
+        <v>1823869.53668856</v>
       </c>
       <c r="I46" t="n">
-        <v>16795184.71343871</v>
+        <v>2188057.884701099</v>
       </c>
       <c r="J46" t="n">
-        <v>12191335.13717992</v>
+        <v>1952822.756178307</v>
       </c>
       <c r="K46" t="n">
-        <v>17064876.32893808</v>
+        <v>2433029.147078326</v>
       </c>
       <c r="L46" t="n">
-        <v>11470666.45430005</v>
+        <v>2054526.356646331</v>
       </c>
       <c r="M46" t="n">
-        <v>18109279.85765439</v>
+        <v>2113542.982453323</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>948096.7497645427</v>
+        <v>8955075.559975578</v>
       </c>
       <c r="C47" t="n">
-        <v>1404111.549870963</v>
+        <v>6385248.215280489</v>
       </c>
       <c r="D47" t="n">
-        <v>1846630.948000958</v>
+        <v>9321161.709053418</v>
       </c>
       <c r="E47" t="n">
-        <v>1713252.901502479</v>
+        <v>-9263642.813458541</v>
       </c>
       <c r="F47" t="n">
-        <v>1674984.499208258</v>
+        <v>-483603.3191742057</v>
       </c>
       <c r="G47" t="n">
-        <v>957618.2569258306</v>
+        <v>6010487.479187514</v>
       </c>
       <c r="H47" t="n">
-        <v>2051273.181920503</v>
+        <v>6539617.561175507</v>
       </c>
       <c r="I47" t="n">
-        <v>1215796.316616629</v>
+        <v>-8903608.468394898</v>
       </c>
       <c r="J47" t="n">
-        <v>2175196.841916041</v>
+        <v>8666466.565048963</v>
       </c>
       <c r="K47" t="n">
-        <v>2354413.156177336</v>
+        <v>18098326.75581394</v>
       </c>
       <c r="L47" t="n">
-        <v>1654433.609804263</v>
+        <v>12244940.16209663</v>
       </c>
       <c r="M47" t="n">
-        <v>2273439.471488406</v>
+        <v>15799263.42690295</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1768215.744174942</v>
+        <v>5043786.854905289</v>
       </c>
       <c r="C48" t="n">
-        <v>1481707.500495921</v>
+        <v>5874350.061504775</v>
       </c>
       <c r="D48" t="n">
-        <v>-869756.1963682307</v>
+        <v>6260816.328640469</v>
       </c>
       <c r="E48" t="n">
-        <v>756910.0601059321</v>
+        <v>4949128.272485398</v>
       </c>
       <c r="F48" t="n">
-        <v>783704.234681264</v>
+        <v>5746948.277070825</v>
       </c>
       <c r="G48" t="n">
-        <v>2997652.978037846</v>
+        <v>6361218.247704687</v>
       </c>
       <c r="H48" t="n">
-        <v>808372.2455838976</v>
+        <v>4576186.188711395</v>
       </c>
       <c r="I48" t="n">
-        <v>494561.9466797856</v>
+        <v>5646928.051501384</v>
       </c>
       <c r="J48" t="n">
-        <v>-439100.7866125377</v>
+        <v>5088927.127314554</v>
       </c>
       <c r="K48" t="n">
-        <v>3295273.23665906</v>
+        <v>7356171.486475424</v>
       </c>
       <c r="L48" t="n">
-        <v>1287029.818319707</v>
+        <v>7203053.885242828</v>
       </c>
       <c r="M48" t="n">
-        <v>391566.706419337</v>
+        <v>5838364.111936077</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>706529.2533454917</v>
+        <v>365826.2165704995</v>
       </c>
       <c r="C49" t="n">
-        <v>612683.519604904</v>
+        <v>981430.5129470818</v>
       </c>
       <c r="D49" t="n">
-        <v>1060695.140432935</v>
+        <v>497828.8406699838</v>
       </c>
       <c r="E49" t="n">
-        <v>810675.4905314757</v>
+        <v>333022.2591829047</v>
       </c>
       <c r="F49" t="n">
-        <v>1020089.466051331</v>
+        <v>749111.0380792528</v>
       </c>
       <c r="G49" t="n">
-        <v>641013.9304674462</v>
+        <v>529417.7401524172</v>
       </c>
       <c r="H49" t="n">
-        <v>685950.9259612252</v>
+        <v>806393.4241257656</v>
       </c>
       <c r="I49" t="n">
-        <v>1115038.971129635</v>
+        <v>1316893.953968028</v>
       </c>
       <c r="J49" t="n">
-        <v>982352.5076928611</v>
+        <v>1493365.556797649</v>
       </c>
       <c r="K49" t="n">
-        <v>1136910.42065871</v>
+        <v>643966.7908071899</v>
       </c>
       <c r="L49" t="n">
-        <v>913934.7181086512</v>
+        <v>167539.4918306572</v>
       </c>
       <c r="M49" t="n">
-        <v>616096.6595166021</v>
+        <v>839247.2490757375</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2082855.436806455</v>
+        <v>4000718.91829525</v>
       </c>
       <c r="C50" t="n">
-        <v>2148436.030553067</v>
+        <v>2055830.583606728</v>
       </c>
       <c r="D50" t="n">
-        <v>2654533.001086804</v>
+        <v>4226472.730260989</v>
       </c>
       <c r="E50" t="n">
-        <v>2484060.583211367</v>
+        <v>2863053.590805901</v>
       </c>
       <c r="F50" t="n">
-        <v>1468941.332377286</v>
+        <v>2141553.668550166</v>
       </c>
       <c r="G50" t="n">
-        <v>2717808.617016932</v>
+        <v>2729680.214374608</v>
       </c>
       <c r="H50" t="n">
-        <v>1686311.141070175</v>
+        <v>3126657.005478079</v>
       </c>
       <c r="I50" t="n">
-        <v>2074930.832729368</v>
+        <v>2553194.610491427</v>
       </c>
       <c r="J50" t="n">
-        <v>2037488.626251531</v>
+        <v>2086992.509131343</v>
       </c>
       <c r="K50" t="n">
-        <v>3080055.323749303</v>
+        <v>5215024.606713342</v>
       </c>
       <c r="L50" t="n">
-        <v>2113192.611915858</v>
+        <v>4721117.049151361</v>
       </c>
       <c r="M50" t="n">
-        <v>3251897.826239227</v>
+        <v>4998113.600374292</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3519655.660790673</v>
+        <v>1517206.163481104</v>
       </c>
       <c r="C51" t="n">
-        <v>2790614.129023908</v>
+        <v>3790438.147775294</v>
       </c>
       <c r="D51" t="n">
-        <v>3805697.344872509</v>
+        <v>3907630.390799499</v>
       </c>
       <c r="E51" t="n">
-        <v>2161787.552175247</v>
+        <v>4322935.164228453</v>
       </c>
       <c r="F51" t="n">
-        <v>2306210.636624486</v>
+        <v>4181250.566124807</v>
       </c>
       <c r="G51" t="n">
-        <v>2746461.703704558</v>
+        <v>2511010.907916754</v>
       </c>
       <c r="H51" t="n">
-        <v>3947979.335164394</v>
+        <v>1901053.332815173</v>
       </c>
       <c r="I51" t="n">
-        <v>1427845.026536531</v>
+        <v>-303213.0973002144</v>
       </c>
       <c r="J51" t="n">
-        <v>3456983.229766632</v>
+        <v>6186629.525079558</v>
       </c>
       <c r="K51" t="n">
-        <v>1547862.074712417</v>
+        <v>3148103.182049138</v>
       </c>
       <c r="L51" t="n">
-        <v>2520403.137194097</v>
+        <v>4536313.474322368</v>
       </c>
       <c r="M51" t="n">
-        <v>4626866.270745216</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2380335.942990756</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2839390.69142568</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1946675.327778801</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2943668.033359861</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3365080.385149847</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3882178.81725572</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2905230.450145428</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2116126.671891364</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3440307.492717923</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3145464.034469239</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2455445.339427533</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2621837.148222066</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>2517867.770709282</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2353311.234852283</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2259818.106630258</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2383432.742119205</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2046409.724889948</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2662033.579482228</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2285668.80465798</v>
-      </c>
-      <c r="I53" t="n">
-        <v>912138.7244027724</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2764052.743778469</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1834158.093115998</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1637501.923185425</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2766876.267385514</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1544724.003927537</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1350795.167290232</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1589058.574206654</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1605222.735077874</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1334043.820153208</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1226061.858899558</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1231708.56206407</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1788868.020951754</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1820228.043977655</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1247501.067455364</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1483482.559435564</v>
-      </c>
-      <c r="M54" t="n">
-        <v>2227489.711104935</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>4401015.185640775</v>
-      </c>
-      <c r="C55" t="n">
-        <v>5321844.375701838</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4575577.667756796</v>
-      </c>
-      <c r="E55" t="n">
-        <v>6073740.416640496</v>
-      </c>
-      <c r="F55" t="n">
-        <v>5050724.689656272</v>
-      </c>
-      <c r="G55" t="n">
-        <v>4432015.046253822</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3508302.957330835</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3394429.589172881</v>
-      </c>
-      <c r="J55" t="n">
-        <v>6012966.097082</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3501965.061039397</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2987678.067496395</v>
-      </c>
-      <c r="M55" t="n">
-        <v>5677619.669256497</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3831527.748723743</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4206763.339072133</v>
-      </c>
-      <c r="D56" t="n">
-        <v>5058354.751852105</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4555971.161231998</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3808205.490099667</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4117518.874546168</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2824912.302594724</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4358665.653948632</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3477980.264767813</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3880961.968155939</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4832094.385102128</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4979284.1023922</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5239987.238480525</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5210331.759171956</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5145054.638701678</v>
-      </c>
-      <c r="E57" t="n">
-        <v>6756430.949963926</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4391137.348740961</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5451854.189508718</v>
-      </c>
-      <c r="H57" t="n">
-        <v>4241859.717860522</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2751731.729484717</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4072126.679638633</v>
-      </c>
-      <c r="K57" t="n">
-        <v>5297306.228330875</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5633211.461275273</v>
-      </c>
-      <c r="M57" t="n">
-        <v>6442684.789764591</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5129264.660898836</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4837153.132653211</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5938658.265205754</v>
-      </c>
-      <c r="E58" t="n">
-        <v>6051603.857267028</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5384916.898167632</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5794667.239356219</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4150748.161728345</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3987468.024639452</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4568679.812092663</v>
-      </c>
-      <c r="K58" t="n">
-        <v>6209094.659429008</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5313930.823555829</v>
-      </c>
-      <c r="M58" t="n">
-        <v>6274553.744749057</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3942373.522798541</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3277926.529058252</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3219790.603958721</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3028279.934732439</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2828620.960571028</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3880246.6425466</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3242473.335370425</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1886697.726638472</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3245398.576582209</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3047109.549420473</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3058856.018477858</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3677271.910749792</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3640482.341675917</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4321172.885351409</v>
-      </c>
-      <c r="D60" t="n">
-        <v>5628611.693614253</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4476572.734949782</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4851001.121932347</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4309282.061269869</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3416382.566438935</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3240559.191730394</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4438102.443771335</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3936905.253705715</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3549479.233201568</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4246309.783108765</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2417535.927011118</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2766335.996500248</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2819816.803718301</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3381979.800615528</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3927791.186770407</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3071330.412812985</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2319707.720393994</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1684318.066609789</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3284782.351171166</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2280154.536423251</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2660798.746729946</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3162302.910489749</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>6093445.061897185</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5646812.142695197</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5877433.312352872</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5537955.666637052</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5974514.81154325</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6615900.407313976</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4944654.077041065</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4237785.990498879</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5634288.456195425</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5086966.996039709</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4757130.800003476</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6082220.265842604</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2997989.168777262</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2878904.66927357</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3264765.1002349</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3082564.923569432</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3908898.116584119</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3158341.396373646</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1812375.945263325</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3033684.190015688</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3658626.439857169</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3201118.090695323</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2542380.636844719</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3316721.848405042</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2160513.180729977</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2138846.493687009</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1974914.152917799</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2616035.376263418</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2146539.054976386</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2044667.649009117</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1368117.269684658</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1818482.679240391</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2179797.585627938</v>
-      </c>
-      <c r="K64" t="n">
-        <v>1948149.86331508</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2428923.565263538</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2053806.765734429</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1001976.727905563</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1267823.439300096</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1649182.751159155</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2042272.601245588</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1315508.967210019</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1059354.391592789</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1205332.943128645</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1208025.479894538</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1138265.580427279</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2003881.293665554</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3031509.213388869</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1976085.447901719</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4214121.25105788</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5052598.58622833</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5811601.722937997</v>
-      </c>
-      <c r="E66" t="n">
-        <v>6122501.406281613</v>
-      </c>
-      <c r="F66" t="n">
-        <v>4804273.427601799</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5488924.492485063</v>
-      </c>
-      <c r="H66" t="n">
-        <v>6044271.406732498</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4361091.751599845</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5443751.094064857</v>
-      </c>
-      <c r="K66" t="n">
-        <v>4782727.418598383</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6831969.000473599</v>
-      </c>
-      <c r="M66" t="n">
-        <v>6619224.110282077</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>643163.0544363227</v>
-      </c>
-      <c r="C67" t="n">
-        <v>354052.0000822999</v>
-      </c>
-      <c r="D67" t="n">
-        <v>976834.3394938969</v>
-      </c>
-      <c r="E67" t="n">
-        <v>489941.6070839682</v>
-      </c>
-      <c r="F67" t="n">
-        <v>334539.9151109244</v>
-      </c>
-      <c r="G67" t="n">
-        <v>749037.9627812887</v>
-      </c>
-      <c r="H67" t="n">
-        <v>528908.9059973871</v>
-      </c>
-      <c r="I67" t="n">
-        <v>804921.5474894271</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1310945.343653154</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1487643.136434434</v>
-      </c>
-      <c r="L67" t="n">
-        <v>658032.2331959036</v>
-      </c>
-      <c r="M67" t="n">
-        <v>187650.3685037119</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>3739679.900981748</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3940228.483302573</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1926521.338271115</v>
-      </c>
-      <c r="E68" t="n">
-        <v>4339422.216264993</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2987511.137343206</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2323145.522466468</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2973887.779694734</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3386674.141912435</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2701236.881527023</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2532486.024135525</v>
-      </c>
-      <c r="L68" t="n">
-        <v>6095490.896282825</v>
-      </c>
-      <c r="M68" t="n">
-        <v>5716216.587455489</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2234677.632446684</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1510617.70406893</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3711697.424414746</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3839773.028987354</v>
-      </c>
-      <c r="F69" t="n">
-        <v>4170178.398632085</v>
-      </c>
-      <c r="G69" t="n">
-        <v>4082303.732417138</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2411177.444763976</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1797983.309726651</v>
-      </c>
-      <c r="J69" t="n">
-        <v>-143432.8615804113</v>
-      </c>
-      <c r="K69" t="n">
-        <v>6094628.984489406</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2475655.773271925</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3818523.113568017</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>-41111.21921318914</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1476979.5744812</v>
-      </c>
-      <c r="D70" t="n">
-        <v>852116.2451152824</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1311773.360198947</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2709360.275077675</v>
-      </c>
-      <c r="G70" t="n">
-        <v>4795407.718266834</v>
-      </c>
-      <c r="H70" t="n">
-        <v>3698704.939473318</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3829033.452561277</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3406766.362776033</v>
-      </c>
-      <c r="K70" t="n">
-        <v>7208576.658655515</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4397468.407038137</v>
-      </c>
-      <c r="M70" t="n">
-        <v>-1141648.513047905</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>14049370.28852589</v>
-      </c>
-      <c r="C71" t="n">
-        <v>16598033.61766821</v>
-      </c>
-      <c r="D71" t="n">
-        <v>19235708.32591272</v>
-      </c>
-      <c r="E71" t="n">
-        <v>20407570.32052013</v>
-      </c>
-      <c r="F71" t="n">
-        <v>21108113.89096084</v>
-      </c>
-      <c r="G71" t="n">
-        <v>50534521.4746132</v>
-      </c>
-      <c r="H71" t="n">
-        <v>7155390.248496206</v>
-      </c>
-      <c r="I71" t="n">
-        <v>21376282.16807862</v>
-      </c>
-      <c r="J71" t="n">
-        <v>30846705.61574491</v>
-      </c>
-      <c r="K71" t="n">
-        <v>22799857.42081123</v>
-      </c>
-      <c r="L71" t="n">
-        <v>17699870.97852987</v>
-      </c>
-      <c r="M71" t="n">
-        <v>22670218.38458446</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>10105182.97549695</v>
-      </c>
-      <c r="C72" t="n">
-        <v>5756351.520200395</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4967356.82622801</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1951371.20548935</v>
-      </c>
-      <c r="F72" t="n">
-        <v>9108941.317699922</v>
-      </c>
-      <c r="G72" t="n">
-        <v>5492499.723372399</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5006556.087850104</v>
-      </c>
-      <c r="I72" t="n">
-        <v>7322551.473814446</v>
-      </c>
-      <c r="J72" t="n">
-        <v>10053884.09002955</v>
-      </c>
-      <c r="K72" t="n">
-        <v>8358401.799695004</v>
-      </c>
-      <c r="L72" t="n">
-        <v>5341681.707878022</v>
-      </c>
-      <c r="M72" t="n">
-        <v>7405797.283740463</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>2116407.123331869</v>
-      </c>
-      <c r="C73" t="n">
-        <v>636462.8041076118</v>
-      </c>
-      <c r="D73" t="n">
-        <v>3291986.317678395</v>
-      </c>
-      <c r="E73" t="n">
-        <v>2439760.536100285</v>
-      </c>
-      <c r="F73" t="n">
-        <v>4194086.914741849</v>
-      </c>
-      <c r="G73" t="n">
-        <v>6953431.702280865</v>
-      </c>
-      <c r="H73" t="n">
-        <v>4508714.014243972</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5857594.706662431</v>
-      </c>
-      <c r="J73" t="n">
-        <v>19848544.71083834</v>
-      </c>
-      <c r="K73" t="n">
-        <v>12038528.28808828</v>
-      </c>
-      <c r="L73" t="n">
-        <v>-2703016.891684143</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1032529.682466423</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>14692145.68442636</v>
-      </c>
-      <c r="C74" t="n">
-        <v>13595545.75922642</v>
-      </c>
-      <c r="D74" t="n">
-        <v>17178139.53263093</v>
-      </c>
-      <c r="E74" t="n">
-        <v>16738564.28714688</v>
-      </c>
-      <c r="F74" t="n">
-        <v>16076483.06303473</v>
-      </c>
-      <c r="G74" t="n">
-        <v>24788845.06176027</v>
-      </c>
-      <c r="H74" t="n">
-        <v>10182506.51527235</v>
-      </c>
-      <c r="I74" t="n">
-        <v>17033625.66577538</v>
-      </c>
-      <c r="J74" t="n">
-        <v>19260100.74202002</v>
-      </c>
-      <c r="K74" t="n">
-        <v>18581401.86165185</v>
-      </c>
-      <c r="L74" t="n">
-        <v>15979281.03068242</v>
-      </c>
-      <c r="M74" t="n">
-        <v>18409477.05566194</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>24250973.22110816</v>
-      </c>
-      <c r="C75" t="n">
-        <v>24080225.48460115</v>
-      </c>
-      <c r="D75" t="n">
-        <v>23884929.83437904</v>
-      </c>
-      <c r="E75" t="n">
-        <v>23187885.90341363</v>
-      </c>
-      <c r="F75" t="n">
-        <v>24814213.00648281</v>
-      </c>
-      <c r="G75" t="n">
-        <v>43235410.54599125</v>
-      </c>
-      <c r="H75" t="n">
-        <v>21074819.25540597</v>
-      </c>
-      <c r="I75" t="n">
-        <v>15932140.86609154</v>
-      </c>
-      <c r="J75" t="n">
-        <v>21493741.52882673</v>
-      </c>
-      <c r="K75" t="n">
-        <v>34477009.54238129</v>
-      </c>
-      <c r="L75" t="n">
-        <v>25835638.94709208</v>
-      </c>
-      <c r="M75" t="n">
-        <v>35551081.35835795</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>-20943867.57160635</v>
-      </c>
-      <c r="C76" t="n">
-        <v>5066420.917514442</v>
-      </c>
-      <c r="D76" t="n">
-        <v>7667491.821681281</v>
-      </c>
-      <c r="E76" t="n">
-        <v>5057125.947399557</v>
-      </c>
-      <c r="F76" t="n">
-        <v>7663290.071000094</v>
-      </c>
-      <c r="G76" t="n">
-        <v>12990417.73851272</v>
-      </c>
-      <c r="H76" t="n">
-        <v>-4162140.949442925</v>
-      </c>
-      <c r="I76" t="n">
-        <v>-7452492.69304984</v>
-      </c>
-      <c r="J76" t="n">
-        <v>25460933.79298987</v>
-      </c>
-      <c r="K76" t="n">
-        <v>4193244.298582397</v>
-      </c>
-      <c r="L76" t="n">
-        <v>-30795036.95813185</v>
-      </c>
-      <c r="M76" t="n">
-        <v>-25363830.23743369</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>-1367667.952449107</v>
-      </c>
-      <c r="C77" t="n">
-        <v>2181822.78097448</v>
-      </c>
-      <c r="D77" t="n">
-        <v>7900487.533082725</v>
-      </c>
-      <c r="E77" t="n">
-        <v>13713446.09766898</v>
-      </c>
-      <c r="F77" t="n">
-        <v>15484034.33429877</v>
-      </c>
-      <c r="G77" t="n">
-        <v>7622103.690631771</v>
-      </c>
-      <c r="H77" t="n">
-        <v>6391707.557430228</v>
-      </c>
-      <c r="I77" t="n">
-        <v>8659406.611584561</v>
-      </c>
-      <c r="J77" t="n">
-        <v>13609109.24692714</v>
-      </c>
-      <c r="K77" t="n">
-        <v>9569134.782941399</v>
-      </c>
-      <c r="L77" t="n">
-        <v>8359352.185319222</v>
-      </c>
-      <c r="M77" t="n">
-        <v>-3097329.823664813</v>
+        <v>3412635.045352026</v>
       </c>
     </row>
   </sheetData>
